--- a/data/trans_orig/P45C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P45C-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>935604</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>915978</v>
+        <v>917111</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>952148</v>
+        <v>955396</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9097211613861667</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8906386910613123</v>
+        <v>0.8917398462819623</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9258079114455355</v>
+        <v>0.9289662010354691</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1198</v>
@@ -765,19 +765,19 @@
         <v>1224816</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1206042</v>
+        <v>1205901</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1239380</v>
+        <v>1240671</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9329293197055027</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9186298060093541</v>
+        <v>0.9185220523336127</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9440225491829705</v>
+        <v>0.9450061452548213</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2142</v>
@@ -786,19 +786,19 @@
         <v>2160420</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2132994</v>
+        <v>2133812</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2184481</v>
+        <v>2184864</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9227348853812369</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9110208397980734</v>
+        <v>0.9113699939204841</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.933011359389425</v>
+        <v>0.9331748800700933</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>82686</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66767</v>
+        <v>63890</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>101007</v>
+        <v>101427</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08039817265967628</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06492019603103959</v>
+        <v>0.06212273678969935</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09821264163888804</v>
+        <v>0.09862131646761431</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>77</v>
@@ -836,19 +836,19 @@
         <v>74314</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>59818</v>
+        <v>58748</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>90614</v>
+        <v>92091</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05660407699175757</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04556311326197503</v>
+        <v>0.04474798080416886</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0690195807979178</v>
+        <v>0.07014489256444084</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>157</v>
@@ -857,19 +857,19 @@
         <v>156999</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>134442</v>
+        <v>134903</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>181702</v>
+        <v>180622</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06705589062790458</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05742126033557778</v>
+        <v>0.05761820903161635</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.077606697065338</v>
+        <v>0.07714531595994031</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>10162</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5010</v>
+        <v>5043</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18352</v>
+        <v>19863</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.009880665954157019</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004871026947362688</v>
+        <v>0.004903341214156491</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01784446034275629</v>
+        <v>0.01931315208262881</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -907,19 +907,19 @@
         <v>13741</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7643</v>
+        <v>7864</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22495</v>
+        <v>22652</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01046660330273963</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005821868217093926</v>
+        <v>0.005989722202018609</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01713408555083226</v>
+        <v>0.01725382756023856</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -928,19 +928,19 @@
         <v>23903</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15655</v>
+        <v>15471</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>36499</v>
+        <v>34072</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01020922399085847</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00668624731605686</v>
+        <v>0.00660794900371741</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01558918753531542</v>
+        <v>0.01455228350149768</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>1369105</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1338418</v>
+        <v>1331554</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1402992</v>
+        <v>1399060</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8102089723656322</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7920491485855917</v>
+        <v>0.7879873314988516</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8302629053719515</v>
+        <v>0.8279360659172139</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1306</v>
@@ -1053,19 +1053,19 @@
         <v>1341643</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1311849</v>
+        <v>1312917</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1368701</v>
+        <v>1367541</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8476770714878242</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8288523602296989</v>
+        <v>0.8295274910620243</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8647728602694139</v>
+        <v>0.8640400313697862</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2636</v>
@@ -1074,19 +1074,19 @@
         <v>2710749</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2670014</v>
+        <v>2665606</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2753253</v>
+        <v>2752968</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.828329984930352</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8158826237787455</v>
+        <v>0.8145356361519128</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8413179898846265</v>
+        <v>0.8412311267456449</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>285351</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>254563</v>
+        <v>255778</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>315355</v>
+        <v>317679</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1688651981921396</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1506452999363111</v>
+        <v>0.1513644860636412</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1866206259153983</v>
+        <v>0.1879962366648131</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>212</v>
@@ -1124,19 +1124,19 @@
         <v>208871</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>181910</v>
+        <v>185140</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>236471</v>
+        <v>235228</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1319687879943305</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1149341512152554</v>
+        <v>0.1169750518398522</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1494069947306353</v>
+        <v>0.1486218360967977</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>494</v>
@@ -1145,19 +1145,19 @@
         <v>494222</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>453416</v>
+        <v>455173</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>534710</v>
+        <v>536098</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1510206763601914</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1385513860913196</v>
+        <v>0.1390882907628609</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1633926128836507</v>
+        <v>0.1638168115189941</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>35361</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24352</v>
+        <v>25054</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50079</v>
+        <v>49305</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02092582944222826</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01441110871597735</v>
+        <v>0.01482640797074317</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02963598529154353</v>
+        <v>0.02917770933679418</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -1195,19 +1195,19 @@
         <v>32215</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22487</v>
+        <v>22349</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44621</v>
+        <v>45430</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02035414051784528</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01420779355190806</v>
+        <v>0.0141203069146874</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02819273015374815</v>
+        <v>0.02870390124224506</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>64</v>
@@ -1216,19 +1216,19 @@
         <v>67576</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53322</v>
+        <v>53563</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87415</v>
+        <v>88481</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02064933870945663</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01629360445611779</v>
+        <v>0.01636742487685738</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0267115962199046</v>
+        <v>0.02703738261067106</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>450689</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>431699</v>
+        <v>429162</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>467100</v>
+        <v>466531</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.81854713149193</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7840580858902654</v>
+        <v>0.7794495837590842</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8483537225100856</v>
+        <v>0.847319612097212</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>364</v>
@@ -1341,19 +1341,19 @@
         <v>385598</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>367009</v>
+        <v>365863</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>401736</v>
+        <v>402368</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8111034224338182</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7720015631432932</v>
+        <v>0.7695918165515505</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8450510994692907</v>
+        <v>0.8463793257652282</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>790</v>
@@ -1362,19 +1362,19 @@
         <v>836286</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>811744</v>
+        <v>810205</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>860752</v>
+        <v>862413</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8150980598631018</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7911780287400835</v>
+        <v>0.7896778415709826</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8389448585584889</v>
+        <v>0.8405637942969364</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>90289</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73873</v>
+        <v>74685</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108945</v>
+        <v>109691</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1639837144196597</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1341685250525392</v>
+        <v>0.1356445027552471</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1978672133494855</v>
+        <v>0.1992215210634441</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -1412,19 +1412,19 @@
         <v>79407</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63388</v>
+        <v>63220</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96370</v>
+        <v>97996</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1670313196576975</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1333369090659805</v>
+        <v>0.1329827192962854</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2027138449974142</v>
+        <v>0.2061349593616151</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>169</v>
@@ -1433,19 +1433,19 @@
         <v>169695</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>147405</v>
+        <v>146160</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>193292</v>
+        <v>195537</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1653958341949389</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1436708015350321</v>
+        <v>0.142457194510598</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1883952263681599</v>
+        <v>0.1905832470703019</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>9618</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4386</v>
+        <v>4124</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18546</v>
+        <v>18535</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01746915408841021</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007966538999692376</v>
+        <v>0.007489767032967054</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03368363941580822</v>
+        <v>0.03366363900245985</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1483,19 +1483,19 @@
         <v>10395</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5008</v>
+        <v>4942</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18985</v>
+        <v>17894</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02186525790848434</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01053478754983496</v>
+        <v>0.0103963477489663</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03993395374054602</v>
+        <v>0.03763921888802359</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -1504,19 +1504,19 @@
         <v>20013</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12053</v>
+        <v>11918</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>31473</v>
+        <v>30627</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01950610594195932</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01174786093793503</v>
+        <v>0.01161614277773978</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03067604932432979</v>
+        <v>0.0298512452252689</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>2755397</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2715050</v>
+        <v>2715793</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2798646</v>
+        <v>2797598</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8429219802998451</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8305791151635812</v>
+        <v>0.8308063088925645</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8561524534466122</v>
+        <v>0.8558318376684726</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2868</v>
@@ -1629,19 +1629,19 @@
         <v>2952057</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2909424</v>
+        <v>2911850</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2987872</v>
+        <v>2991941</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8757216266674034</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8630745855145601</v>
+        <v>0.8637943461090517</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8863460244115896</v>
+        <v>0.8875533033298746</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5568</v>
@@ -1650,19 +1650,19 @@
         <v>5707455</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5646670</v>
+        <v>5644075</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5767091</v>
+        <v>5755553</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8595740663130287</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8504195803260918</v>
+        <v>0.850028687947006</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8685556556905182</v>
+        <v>0.8668179116984831</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>458326</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>419808</v>
+        <v>417068</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>496440</v>
+        <v>493669</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1402094533985785</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1284261504445329</v>
+        <v>0.1275879382582348</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1518694112337022</v>
+        <v>0.1510214369556856</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>366</v>
@@ -1700,19 +1700,19 @@
         <v>362591</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>327557</v>
+        <v>325958</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>399783</v>
+        <v>396727</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1075619320311465</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09716899550954909</v>
+        <v>0.09669465640391395</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.118594842445291</v>
+        <v>0.1176882421659786</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>820</v>
@@ -1721,19 +1721,19 @@
         <v>820917</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>766444</v>
+        <v>770629</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>875041</v>
+        <v>876645</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1236345998823088</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1154306701881739</v>
+        <v>0.1160608868160219</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1317859100334986</v>
+        <v>0.1320275093142461</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>55141</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>42263</v>
+        <v>40775</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>71313</v>
+        <v>71734</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01686856630157643</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01292901206384162</v>
+        <v>0.01247373330250917</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0218158423528154</v>
+        <v>0.02194451073057407</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>55</v>
@@ -1771,19 +1771,19 @@
         <v>56351</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>42229</v>
+        <v>42819</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>72248</v>
+        <v>71619</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01671644130145013</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01252723058804069</v>
+        <v>0.01270210593630285</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02143218670027817</v>
+        <v>0.02124561445018671</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>107</v>
@@ -1792,19 +1792,19 @@
         <v>111492</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>90791</v>
+        <v>92439</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>134294</v>
+        <v>134879</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01679133380466255</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01367359626463664</v>
+        <v>0.01392179433862562</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02022537227755782</v>
+        <v>0.02031356930901283</v>
       </c>
     </row>
     <row r="19">
@@ -2135,19 +2135,19 @@
         <v>856419</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>836158</v>
+        <v>835700</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>875623</v>
+        <v>875523</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.886204011050284</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8652384780270341</v>
+        <v>0.8647650929507847</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9060763300630554</v>
+        <v>0.9059727185465459</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1115</v>
@@ -2156,19 +2156,19 @@
         <v>1195323</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1171670</v>
+        <v>1171326</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1216456</v>
+        <v>1214930</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9042273385441276</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8863347102303806</v>
+        <v>0.8860742923595313</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9202138794424801</v>
+        <v>0.9190596577386529</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1908</v>
@@ -2177,19 +2177,19 @@
         <v>2051742</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2019657</v>
+        <v>2018551</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2080983</v>
+        <v>2080737</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8966158219543292</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8825945115144916</v>
+        <v>0.8821112590946475</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9093939995948108</v>
+        <v>0.9092866835844603</v>
       </c>
     </row>
     <row r="5">
@@ -2206,19 +2206,19 @@
         <v>99252</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>81599</v>
+        <v>80877</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>119304</v>
+        <v>119602</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.102703695456487</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08443739747124793</v>
+        <v>0.08369015092355313</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.123453267497597</v>
+        <v>0.1237616028340151</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>99</v>
@@ -2227,19 +2227,19 @@
         <v>107004</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>88214</v>
+        <v>90495</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129028</v>
+        <v>130675</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08094552670173709</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06673136963066287</v>
+        <v>0.06845652749311298</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09760619482303343</v>
+        <v>0.09885220078700889</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>195</v>
@@ -2248,19 +2248,19 @@
         <v>206256</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>179292</v>
+        <v>180126</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>234202</v>
+        <v>236146</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09013432175065261</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07835093884570983</v>
+        <v>0.07871558173568749</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1023467720800535</v>
+        <v>0.1031962090722839</v>
       </c>
     </row>
     <row r="6">
@@ -2277,19 +2277,19 @@
         <v>10719</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5726</v>
+        <v>5797</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19379</v>
+        <v>19392</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01109229349322904</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005925603920175981</v>
+        <v>0.005998187211410546</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02005332733839953</v>
+        <v>0.02006683878608851</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -2298,19 +2298,19 @@
         <v>19600</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11239</v>
+        <v>11965</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29287</v>
+        <v>30762</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01482713475413526</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.008501826482684462</v>
+        <v>0.009050934235743022</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02215440726630089</v>
+        <v>0.02327068149899379</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -2319,19 +2319,19 @@
         <v>30320</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19103</v>
+        <v>20385</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>43005</v>
+        <v>41832</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01324985629501822</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008348224118549798</v>
+        <v>0.00890837451560752</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01879308242630452</v>
+        <v>0.01828087370589188</v>
       </c>
     </row>
     <row r="7">
@@ -2423,19 +2423,19 @@
         <v>1567620</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1529987</v>
+        <v>1527542</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1600482</v>
+        <v>1601618</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8037302857036577</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7844352409710327</v>
+        <v>0.7831819411967559</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8205784853619963</v>
+        <v>0.8211609824418181</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1355</v>
@@ -2444,19 +2444,19 @@
         <v>1464054</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1432015</v>
+        <v>1427906</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1494993</v>
+        <v>1494662</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8405642333825734</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8221692343974745</v>
+        <v>0.8198100487589001</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8583271046802589</v>
+        <v>0.8581368871635872</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2821</v>
@@ -2465,19 +2465,19 @@
         <v>3031676</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2984066</v>
+        <v>2982950</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3078381</v>
+        <v>3079947</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8211063490671</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8082115735673858</v>
+        <v>0.8079093509309879</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8337560297663493</v>
+        <v>0.8341802054455029</v>
       </c>
     </row>
     <row r="9">
@@ -2494,19 +2494,19 @@
         <v>354997</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>323318</v>
+        <v>319479</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>390596</v>
+        <v>390217</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1820096354283617</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1657672712106342</v>
+        <v>0.1637993788506492</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2002615427290435</v>
+        <v>0.2000671668768351</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>240</v>
@@ -2515,19 +2515,19 @@
         <v>251898</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>221986</v>
+        <v>222153</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>281315</v>
+        <v>285699</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1446235894739036</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1274495981224712</v>
+        <v>0.1275459756037028</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1615123978185088</v>
+        <v>0.1640295630408652</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>591</v>
@@ -2536,19 +2536,19 @@
         <v>606896</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>562080</v>
+        <v>562003</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>655304</v>
+        <v>655510</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1643731249713225</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1522349812094558</v>
+        <v>0.152214272690151</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1774841323823013</v>
+        <v>0.1775400290159463</v>
       </c>
     </row>
     <row r="10">
@@ -2565,19 +2565,19 @@
         <v>27813</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18248</v>
+        <v>18025</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40303</v>
+        <v>40649</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01426007886798073</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009355780576126176</v>
+        <v>0.00924158091141344</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02066344634917609</v>
+        <v>0.02084128507710623</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -2586,19 +2586,19 @@
         <v>25799</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17747</v>
+        <v>16815</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36976</v>
+        <v>36701</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01481217714352303</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01018907419598005</v>
+        <v>0.009654331821322366</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02122903809087309</v>
+        <v>0.02107128865781559</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -2607,19 +2607,19 @@
         <v>53612</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40795</v>
+        <v>40382</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69031</v>
+        <v>71592</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01452052596157753</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01104902199684031</v>
+        <v>0.01093713488249025</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01869661696532465</v>
+        <v>0.01939009211317241</v>
       </c>
     </row>
     <row r="11">
@@ -2711,19 +2711,19 @@
         <v>370106</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>349438</v>
+        <v>348605</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>388080</v>
+        <v>388090</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.778794290994627</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7353037169757843</v>
+        <v>0.7335522129121363</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.816616434359248</v>
+        <v>0.8166376945231074</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>344</v>
@@ -2732,19 +2732,19 @@
         <v>386337</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>369242</v>
+        <v>369302</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>400020</v>
+        <v>400435</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8478465592725758</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8103308279136543</v>
+        <v>0.810462105805542</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8778753198239058</v>
+        <v>0.8787864678192101</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>677</v>
@@ -2753,19 +2753,19 @@
         <v>756442</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>728408</v>
+        <v>731726</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>779615</v>
+        <v>780390</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8125949472894263</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7824795144781065</v>
+        <v>0.7860437578997886</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8374879369148093</v>
+        <v>0.8383199674801803</v>
       </c>
     </row>
     <row r="13">
@@ -2782,19 +2782,19 @@
         <v>99644</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>81397</v>
+        <v>82189</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>119746</v>
+        <v>122252</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2096759399248326</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1712791623713912</v>
+        <v>0.1729463661032684</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2519743624944629</v>
+        <v>0.257247950015807</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -2803,19 +2803,19 @@
         <v>58471</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44201</v>
+        <v>44650</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75068</v>
+        <v>75124</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1283190247390576</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09700254487614582</v>
+        <v>0.09798835389085384</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1647434508445497</v>
+        <v>0.1648658445305941</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>149</v>
@@ -2824,19 +2824,19 @@
         <v>158115</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>135967</v>
+        <v>132870</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>184448</v>
+        <v>179571</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1698522354184062</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1460603070935963</v>
+        <v>0.1427333404773078</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.198139723794837</v>
+        <v>0.1929006244910768</v>
       </c>
     </row>
     <row r="14">
@@ -2853,19 +2853,19 @@
         <v>5479</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2046</v>
+        <v>1998</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13225</v>
+        <v>12067</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01152976908054039</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004305638924760443</v>
+        <v>0.004204671054204471</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02782943795655414</v>
+        <v>0.02539105850623904</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -2874,19 +2874,19 @@
         <v>10861</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5344</v>
+        <v>5562</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19311</v>
+        <v>19439</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02383441598836663</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01172809322192861</v>
+        <v>0.01220719327825755</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04238025252251273</v>
+        <v>0.0426610529215803</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -2895,19 +2895,19 @@
         <v>16340</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9743</v>
+        <v>9865</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>26439</v>
+        <v>26517</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01755281729216756</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01046617933495292</v>
+        <v>0.0105974374183698</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02840142325061206</v>
+        <v>0.02848513888828992</v>
       </c>
     </row>
     <row r="15">
@@ -2999,19 +2999,19 @@
         <v>2794145</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2748704</v>
+        <v>2751258</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2839389</v>
+        <v>2837809</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8237333773008757</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8103370895086018</v>
+        <v>0.8110900067863498</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8370717598280577</v>
+        <v>0.8366059014208598</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2814</v>
@@ -3020,19 +3020,19 @@
         <v>3045714</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3004544</v>
+        <v>3003361</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3082244</v>
+        <v>3085728</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8654200645245336</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8537216590317449</v>
+        <v>0.8533856324935138</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8757998197222935</v>
+        <v>0.8767897424824767</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5406</v>
@@ -3041,19 +3041,19 @@
         <v>5839860</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5779790</v>
+        <v>5773406</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5901466</v>
+        <v>5898957</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8449606249728109</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8362691162713938</v>
+        <v>0.8353454931649896</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8538743089574442</v>
+        <v>0.8535112597676311</v>
       </c>
     </row>
     <row r="17">
@@ -3070,19 +3070,19 @@
         <v>553893</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>508212</v>
+        <v>513743</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>599628</v>
+        <v>597871</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1632915597850181</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1498245700420663</v>
+        <v>0.1514549379675227</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1767745572042882</v>
+        <v>0.1762566048122399</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>394</v>
@@ -3091,19 +3091,19 @@
         <v>417373</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>380377</v>
+        <v>377705</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>456608</v>
+        <v>458619</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1185939833973288</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1080818040321259</v>
+        <v>0.1073224354143383</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1297421691550227</v>
+        <v>0.1303137344850516</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>935</v>
@@ -3112,19 +3112,19 @@
         <v>971267</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>915552</v>
+        <v>909847</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1032899</v>
+        <v>1030176</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1405311394324442</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.132469784417892</v>
+        <v>0.1316444110909486</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1494486805578376</v>
+        <v>0.1490545667830549</v>
       </c>
     </row>
     <row r="18">
@@ -3141,19 +3141,19 @@
         <v>44012</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>32361</v>
+        <v>31714</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>58526</v>
+        <v>60541</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01297506291410619</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.009540192119172545</v>
+        <v>0.009349536088868892</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01725399572167424</v>
+        <v>0.01784804044906142</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>53</v>
@@ -3162,19 +3162,19 @@
         <v>56260</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>42609</v>
+        <v>43083</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>72614</v>
+        <v>73068</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0159859520781377</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01210701935273653</v>
+        <v>0.01224187779079916</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02063274079457313</v>
+        <v>0.02076174441438073</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>95</v>
@@ -3183,19 +3183,19 @@
         <v>100272</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>82254</v>
+        <v>79635</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>120196</v>
+        <v>121384</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01450823559474489</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01190115183835969</v>
+        <v>0.01152224275911066</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01739093673468082</v>
+        <v>0.01756289889076494</v>
       </c>
     </row>
     <row r="19">
@@ -3526,19 +3526,19 @@
         <v>697122</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>681202</v>
+        <v>682352</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>709357</v>
+        <v>709940</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9340961711229957</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9127652291867248</v>
+        <v>0.9143062692548425</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9504906772432127</v>
+        <v>0.9512714996514385</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>825</v>
@@ -3547,19 +3547,19 @@
         <v>922471</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>905566</v>
+        <v>905682</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>936161</v>
+        <v>937174</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9365273883099713</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9193642379181888</v>
+        <v>0.9194821824668615</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9504260676352803</v>
+        <v>0.9514543300919179</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1533</v>
@@ -3568,19 +3568,19 @@
         <v>1619593</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1598650</v>
+        <v>1599902</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1638348</v>
+        <v>1639377</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9354793697298671</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9233827673978779</v>
+        <v>0.9241060752508459</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9463123845877088</v>
+        <v>0.946906898299812</v>
       </c>
     </row>
     <row r="5">
@@ -3597,19 +3597,19 @@
         <v>42042</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30649</v>
+        <v>29546</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57253</v>
+        <v>55842</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05633361036848056</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04106725232980279</v>
+        <v>0.03959008195042578</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07671581040269029</v>
+        <v>0.07482460133819763</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>51</v>
@@ -3618,19 +3618,19 @@
         <v>54405</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>40663</v>
+        <v>40994</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>70354</v>
+        <v>70203</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05523357600290074</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0412827074756637</v>
+        <v>0.04161877438094774</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07142588708529909</v>
+        <v>0.07127274793966158</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>90</v>
@@ -3639,19 +3639,19 @@
         <v>96447</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>77787</v>
+        <v>78420</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>115961</v>
+        <v>116782</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05570776500586466</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04492984487360965</v>
+        <v>0.04529530709773066</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06697930954713853</v>
+        <v>0.06745359875498846</v>
       </c>
     </row>
     <row r="6">
@@ -3668,19 +3668,19 @@
         <v>7142</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3336</v>
+        <v>2848</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15248</v>
+        <v>14886</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.009570218508523756</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004469605220304471</v>
+        <v>0.00381606961976618</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02043138398462031</v>
+        <v>0.01994625017549463</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -3689,19 +3689,19 @@
         <v>8115</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3395</v>
+        <v>3915</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15796</v>
+        <v>16475</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.008239035687127964</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003446990466546338</v>
+        <v>0.003974361741045405</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01603676389802072</v>
+        <v>0.01672626074947848</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -3710,19 +3710,19 @@
         <v>15258</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9142</v>
+        <v>8647</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25187</v>
+        <v>24231</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.008812865264268175</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005280351407228123</v>
+        <v>0.004994481447410384</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01454822094402568</v>
+        <v>0.01399591469663376</v>
       </c>
     </row>
     <row r="7">
@@ -3814,19 +3814,19 @@
         <v>1743269</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1709528</v>
+        <v>1705645</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1776882</v>
+        <v>1774281</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.845848193429479</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8294765276653582</v>
+        <v>0.8275924110689532</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8621573935454554</v>
+        <v>0.8608953827900535</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1592</v>
@@ -3835,19 +3835,19 @@
         <v>1662113</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1627042</v>
+        <v>1631102</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1693462</v>
+        <v>1698020</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8403531673666848</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8226214629741975</v>
+        <v>0.8246742906979984</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8562029792364504</v>
+        <v>0.8585075992850655</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3233</v>
@@ -3856,19 +3856,19 @@
         <v>3405382</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3356097</v>
+        <v>3354946</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3452805</v>
+        <v>3452480</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8431572099737312</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8309544065447857</v>
+        <v>0.8306694302508933</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8548989802744672</v>
+        <v>0.8548183339816049</v>
       </c>
     </row>
     <row r="9">
@@ -3885,19 +3885,19 @@
         <v>298646</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>265218</v>
+        <v>268963</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>330431</v>
+        <v>336507</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1449052336812306</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1286860067470497</v>
+        <v>0.1305031819826276</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1603279604956001</v>
+        <v>0.1632758673195367</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>284</v>
@@ -3906,19 +3906,19 @@
         <v>291317</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>260210</v>
+        <v>257695</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>323714</v>
+        <v>324433</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1472876955944964</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1315602197951796</v>
+        <v>0.1302887412679228</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1636678124812114</v>
+        <v>0.1640309315079571</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>563</v>
@@ -3927,19 +3927,19 @@
         <v>589962</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>544173</v>
+        <v>543849</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>637688</v>
+        <v>640392</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1460719552798699</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.134734787017228</v>
+        <v>0.1346544809158514</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1578885712891704</v>
+        <v>0.1585581539258285</v>
       </c>
     </row>
     <row r="10">
@@ -3956,19 +3956,19 @@
         <v>19057</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11991</v>
+        <v>11658</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29800</v>
+        <v>30664</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009246572889290337</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005817910401119426</v>
+        <v>0.005656426673672145</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01445918312560645</v>
+        <v>0.01487862741469045</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -3977,19 +3977,19 @@
         <v>24445</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15700</v>
+        <v>16320</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37069</v>
+        <v>36879</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0123591370388188</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007937798064048162</v>
+        <v>0.008251182399683157</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01874207216523754</v>
+        <v>0.01864559844714182</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -3998,19 +3998,19 @@
         <v>43502</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31686</v>
+        <v>31072</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59178</v>
+        <v>59108</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01077083474639896</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007845364659450004</v>
+        <v>0.007693234487616804</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.014652319016547</v>
+        <v>0.01463478531405801</v>
       </c>
     </row>
     <row r="11">
@@ -4102,19 +4102,19 @@
         <v>455893</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>436105</v>
+        <v>436911</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>471612</v>
+        <v>471656</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8422771261796547</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8057197348530152</v>
+        <v>0.8072085921530193</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8713189493734516</v>
+        <v>0.871400100216834</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>425</v>
@@ -4123,19 +4123,19 @@
         <v>445741</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>424881</v>
+        <v>426284</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>464189</v>
+        <v>463543</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8210336702049178</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7826115347719588</v>
+        <v>0.7851950273596116</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8550138698387747</v>
+        <v>0.853825109054599</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>842</v>
@@ -4144,19 +4144,19 @@
         <v>901633</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>873832</v>
+        <v>875577</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>924330</v>
+        <v>927543</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8316393302657987</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8059965945019487</v>
+        <v>0.8076056289220338</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8525741502722365</v>
+        <v>0.8555379357251751</v>
       </c>
     </row>
     <row r="13">
@@ -4173,19 +4173,19 @@
         <v>80765</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64728</v>
+        <v>64908</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>98808</v>
+        <v>99068</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.149216515999126</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.11958641638631</v>
+        <v>0.1199193869746462</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.182551090570379</v>
+        <v>0.1830314888391296</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>89</v>
@@ -4194,19 +4194,19 @@
         <v>91258</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74860</v>
+        <v>73933</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111335</v>
+        <v>109729</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1680934740512285</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1378890508079456</v>
+        <v>0.1361806971839213</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2050737915849259</v>
+        <v>0.2021163124383432</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>165</v>
@@ -4215,19 +4215,19 @@
         <v>172024</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>148921</v>
+        <v>146730</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>199258</v>
+        <v>196673</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1586692730021057</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1373603524959874</v>
+        <v>0.1353389522901281</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1837896016726104</v>
+        <v>0.1814048384625201</v>
       </c>
     </row>
     <row r="14">
@@ -4244,19 +4244,19 @@
         <v>4604</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12957</v>
+        <v>14069</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008506357821219316</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001789704317045328</v>
+        <v>0.001789248388732391</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02393875749748642</v>
+        <v>0.02599255738383095</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -4265,19 +4265,19 @@
         <v>5903</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2053</v>
+        <v>1943</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13011</v>
+        <v>12360</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01087285574385366</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003781128495714554</v>
+        <v>0.003578171523336015</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02396619545906982</v>
+        <v>0.02276727376241751</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -4286,19 +4286,19 @@
         <v>10507</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4829</v>
+        <v>4987</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19894</v>
+        <v>20808</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00969139673209549</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004454372873243974</v>
+        <v>0.004599457920147509</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01834992257451725</v>
+        <v>0.01919270410547476</v>
       </c>
     </row>
     <row r="15">
@@ -4390,19 +4390,19 @@
         <v>2896284</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2855775</v>
+        <v>2854489</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2935619</v>
+        <v>2937021</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8649392273716281</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8528418821063968</v>
+        <v>0.8524578214997682</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8766861094497296</v>
+        <v>0.8771049350321865</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2842</v>
@@ -4411,19 +4411,19 @@
         <v>3030325</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2990636</v>
+        <v>2987947</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3069183</v>
+        <v>3070407</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8643827650766707</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8530619349059717</v>
+        <v>0.8522948766843579</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8754669512296759</v>
+        <v>0.8758161593252772</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5608</v>
@@ -4432,19 +4432,19 @@
         <v>5926607</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5864000</v>
+        <v>5877178</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5981062</v>
+        <v>5987540</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8646546140409136</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8555205674646199</v>
+        <v>0.8574431976672875</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8725991906994358</v>
+        <v>0.8735443686127183</v>
       </c>
     </row>
     <row r="17">
@@ -4461,19 +4461,19 @@
         <v>421453</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>385049</v>
+        <v>380186</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>462028</v>
+        <v>463030</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1258617164274378</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1149902308687215</v>
+        <v>0.1135378868160004</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1379788952842455</v>
+        <v>0.1382783163095267</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>424</v>
@@ -4482,19 +4482,19 @@
         <v>436979</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>398615</v>
+        <v>398349</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>475910</v>
+        <v>477321</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1246458593649299</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1137025167587541</v>
+        <v>0.1136266747115021</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1357506530042187</v>
+        <v>0.1361530822868961</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>818</v>
@@ -4503,19 +4503,19 @@
         <v>858432</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>803239</v>
+        <v>801777</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>917684</v>
+        <v>909660</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1252398429755095</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1171874610666771</v>
+        <v>0.116974229301442</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1338843419050127</v>
+        <v>0.1327136019930276</v>
       </c>
     </row>
     <row r="18">
@@ -4532,19 +4532,19 @@
         <v>30803</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19998</v>
+        <v>20815</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45201</v>
+        <v>44663</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.009199056200934089</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.005972279563808508</v>
+        <v>0.006216238413000553</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01349862512803786</v>
+        <v>0.01333799413265249</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>37</v>
@@ -4553,19 +4553,19 @@
         <v>38463</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>28451</v>
+        <v>27387</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>51980</v>
+        <v>53020</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0109713755583994</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.008115395339635734</v>
+        <v>0.007812017962786562</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01482707433447157</v>
+        <v>0.01512376820626958</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>65</v>
@@ -4574,19 +4574,19 @@
         <v>69266</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>53647</v>
+        <v>53660</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>88147</v>
+        <v>87233</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01010554298357693</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.007826805117536632</v>
+        <v>0.00782858430253279</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01286002047513954</v>
+        <v>0.01272677945969953</v>
       </c>
     </row>
     <row r="19">
@@ -4917,19 +4917,19 @@
         <v>494378</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>476276</v>
+        <v>476223</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>509637</v>
+        <v>509519</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8559528846818317</v>
+        <v>0.8559528846818315</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8246121579530854</v>
+        <v>0.8245195447253362</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.882371423384561</v>
+        <v>0.8821673120958463</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1295</v>
@@ -4938,19 +4938,19 @@
         <v>746669</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>732648</v>
+        <v>734358</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>758607</v>
+        <v>759199</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9089872978549352</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8919191838404714</v>
+        <v>0.8940011136299856</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9235214639279661</v>
+        <v>0.9242418558539186</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1892</v>
@@ -4959,19 +4959,19 @@
         <v>1241047</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1219636</v>
+        <v>1218475</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1262339</v>
+        <v>1261239</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8870921629586045</v>
+        <v>0.8870921629586046</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8717874992929873</v>
+        <v>0.8709578813009125</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9023115302458501</v>
+        <v>0.9015251475181228</v>
       </c>
     </row>
     <row r="5">
@@ -4988,19 +4988,19 @@
         <v>70805</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56835</v>
+        <v>56419</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>88420</v>
+        <v>89984</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1225904105649707</v>
+        <v>0.1225904105649706</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0984026446256719</v>
+        <v>0.09768250331139082</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1530887766142928</v>
+        <v>0.1557954979746052</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>116</v>
@@ -5009,19 +5009,19 @@
         <v>65952</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>54941</v>
+        <v>54548</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>79991</v>
+        <v>77808</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08028929463957506</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06688506626228237</v>
+        <v>0.06640672737032467</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09738075035731376</v>
+        <v>0.09472251001626059</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>196</v>
@@ -5030,19 +5030,19 @@
         <v>136757</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>117946</v>
+        <v>117123</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>158315</v>
+        <v>157431</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.09775321257581737</v>
+        <v>0.09775321257581739</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08430702032009189</v>
+        <v>0.08371904724346509</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1131628397023823</v>
+        <v>0.112530945435942</v>
       </c>
     </row>
     <row r="6">
@@ -5059,19 +5059,19 @@
         <v>12393</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6514</v>
+        <v>6386</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21827</v>
+        <v>21752</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.02145670475319782</v>
+        <v>0.02145670475319781</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01127853985553514</v>
+        <v>0.01105668579454185</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03779057896198066</v>
+        <v>0.03766068007746988</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -5080,19 +5080,19 @@
         <v>8809</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4986</v>
+        <v>4930</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14371</v>
+        <v>13985</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01072340750548988</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006070129091021663</v>
+        <v>0.006001133952689301</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0174949366341252</v>
+        <v>0.01702533179764004</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -5101,19 +5101,19 @@
         <v>21201</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13423</v>
+        <v>13963</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31291</v>
+        <v>32382</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01515462446557801</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009594823937742204</v>
+        <v>0.009980629515520017</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02236688135264784</v>
+        <v>0.02314617709250815</v>
       </c>
     </row>
     <row r="7">
@@ -5205,19 +5205,19 @@
         <v>1815694</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1771706</v>
+        <v>1774786</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1858324</v>
+        <v>1856819</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8164005239597261</v>
+        <v>0.8164005239597262</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7966219115622534</v>
+        <v>0.7980067348239266</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.835568169498883</v>
+        <v>0.8348916565154012</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2544</v>
@@ -5226,19 +5226,19 @@
         <v>1847359</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1811682</v>
+        <v>1812011</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1878569</v>
+        <v>1881186</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8521817702907806</v>
+        <v>0.8521817702907805</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8357241183381788</v>
+        <v>0.835875856675784</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.866578763691689</v>
+        <v>0.8677863545930938</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4216</v>
@@ -5247,19 +5247,19 @@
         <v>3663053</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3604668</v>
+        <v>3612652</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3716847</v>
+        <v>3719830</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8340621055200909</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8207680896768549</v>
+        <v>0.8225860702463108</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8463107482903305</v>
+        <v>0.8469898628325646</v>
       </c>
     </row>
     <row r="9">
@@ -5276,19 +5276,19 @@
         <v>374011</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>330169</v>
+        <v>334138</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>415782</v>
+        <v>415764</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1681685559523481</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1484557668399678</v>
+        <v>0.1502405046211158</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1869502139530044</v>
+        <v>0.1869420526092851</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>335</v>
@@ -5297,19 +5297,19 @@
         <v>287152</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>258541</v>
+        <v>257186</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>319695</v>
+        <v>319122</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.1324623219114924</v>
+        <v>0.1324623219114923</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1192641557953452</v>
+        <v>0.1186392650144677</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1474746827076735</v>
+        <v>0.1472100734569285</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>623</v>
@@ -5318,19 +5318,19 @@
         <v>661163</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>609173</v>
+        <v>604698</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>714173</v>
+        <v>712601</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1505440003711546</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1387062408571791</v>
+        <v>0.1376873249453319</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1626141811357667</v>
+        <v>0.1622562671464292</v>
       </c>
     </row>
     <row r="10">
@@ -5347,19 +5347,19 @@
         <v>34319</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22198</v>
+        <v>22808</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48911</v>
+        <v>51039</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01543092008792589</v>
+        <v>0.0154309200879259</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009980796135446748</v>
+        <v>0.01025536967626163</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0219921754173894</v>
+        <v>0.02294891897094476</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -5368,19 +5368,19 @@
         <v>33289</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23816</v>
+        <v>23009</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45306</v>
+        <v>45121</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.01535590779772708</v>
+        <v>0.01535590779772707</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01098609636810508</v>
+        <v>0.01061414266113545</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02089964574319939</v>
+        <v>0.02081401852076117</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -5389,19 +5389,19 @@
         <v>67607</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51875</v>
+        <v>51277</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87135</v>
+        <v>88871</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01539389410875461</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01181169573852115</v>
+        <v>0.01167556845830307</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01984039039748741</v>
+        <v>0.02023565447115015</v>
       </c>
     </row>
     <row r="11">
@@ -5493,19 +5493,19 @@
         <v>604916</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>580319</v>
+        <v>583240</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>623989</v>
+        <v>627017</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8500938255415137</v>
+        <v>0.8500938255415136</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8155272601530388</v>
+        <v>0.8196327853631515</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8768970329442979</v>
+        <v>0.881152751180055</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>882</v>
@@ -5514,19 +5514,19 @@
         <v>633157</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>616196</v>
+        <v>614995</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>649333</v>
+        <v>649994</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8615820223374815</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.838502525205032</v>
+        <v>0.8368679995212721</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.883593836275451</v>
+        <v>0.8844932517913101</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1471</v>
@@ -5535,19 +5535,19 @@
         <v>1238073</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1208925</v>
+        <v>1209009</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1264211</v>
+        <v>1263214</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.855930412558445</v>
+        <v>0.8559304125584447</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8357794838851548</v>
+        <v>0.835837477064803</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8740010825154499</v>
+        <v>0.8733118040673532</v>
       </c>
     </row>
     <row r="13">
@@ -5564,19 +5564,19 @@
         <v>93177</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74108</v>
+        <v>73213</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>118209</v>
+        <v>116469</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1309418334374228</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1041453417798805</v>
+        <v>0.1028867184074595</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1661196262809975</v>
+        <v>0.1636743722937714</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>105</v>
@@ -5585,19 +5585,19 @@
         <v>86391</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>72232</v>
+        <v>70048</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102806</v>
+        <v>103177</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1175578255227668</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09829193990771724</v>
+        <v>0.09531933283595072</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.139894872607055</v>
+        <v>0.1403999175156959</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>186</v>
@@ -5606,19 +5606,19 @@
         <v>179567</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>156374</v>
+        <v>155284</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>207001</v>
+        <v>207748</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1241420781567156</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.108108075979016</v>
+        <v>0.1073543435358923</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1431084699553933</v>
+        <v>0.1436248177828229</v>
       </c>
     </row>
     <row r="14">
@@ -5635,19 +5635,19 @@
         <v>13495</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6632</v>
+        <v>6828</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23754</v>
+        <v>25071</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0189643410210636</v>
+        <v>0.01896434102106359</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009320112156590607</v>
+        <v>0.00959586439520786</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03338113262763327</v>
+        <v>0.03523275944691645</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -5656,19 +5656,19 @@
         <v>15330</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9149</v>
+        <v>9337</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24222</v>
+        <v>23941</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02086015213975153</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01244945819549665</v>
+        <v>0.01270533370825317</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03296088267243664</v>
+        <v>0.0325788824409969</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>28</v>
@@ -5677,19 +5677,19 @@
         <v>28824</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19633</v>
+        <v>18288</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43190</v>
+        <v>41762</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01992750928483947</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01357340112110298</v>
+        <v>0.01264327949560492</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02985885693603009</v>
+        <v>0.0288721166038908</v>
       </c>
     </row>
     <row r="15">
@@ -5781,19 +5781,19 @@
         <v>2914989</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2860786</v>
+        <v>2860962</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2964002</v>
+        <v>2970667</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8297275152695646</v>
+        <v>0.8297275152695645</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.814299216305842</v>
+        <v>0.8143493236269128</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8436788676325342</v>
+        <v>0.845575910237208</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4721</v>
@@ -5802,19 +5802,19 @@
         <v>3227185</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3187432</v>
+        <v>3187002</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3265123</v>
+        <v>3263140</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8665663690904781</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.855891953562377</v>
+        <v>0.8557763858839988</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8767535960574988</v>
+        <v>0.8762211445425109</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7579</v>
@@ -5823,19 +5823,19 @@
         <v>6142173</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6082766</v>
+        <v>6067187</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6206105</v>
+        <v>6208106</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8486837431511062</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8404753180622153</v>
+        <v>0.838322665452316</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8575175117418582</v>
+        <v>0.8577939010713916</v>
       </c>
     </row>
     <row r="17">
@@ -5852,19 +5852,19 @@
         <v>537993</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>491260</v>
+        <v>482565</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>588428</v>
+        <v>591917</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1531352263199623</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1398331952619192</v>
+        <v>0.1373581409598096</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1674912825308764</v>
+        <v>0.1684842108930295</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>556</v>
@@ -5873,19 +5873,19 @@
         <v>439494</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>402926</v>
+        <v>405032</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>480648</v>
+        <v>477275</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1180133661647628</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1081941197793794</v>
+        <v>0.108759636812002</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1290641251108139</v>
+        <v>0.1281582764092872</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1005</v>
@@ -5894,19 +5894,19 @@
         <v>977487</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>915581</v>
+        <v>916108</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1034870</v>
+        <v>1048096</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1350625146128561</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1265088193151335</v>
+        <v>0.1265815699523564</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1429912962908157</v>
+        <v>0.1448187606912907</v>
       </c>
     </row>
     <row r="18">
@@ -5923,19 +5923,19 @@
         <v>60206</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>43969</v>
+        <v>44629</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>79604</v>
+        <v>82385</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0171372584104733</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01251542611175596</v>
+        <v>0.01270320753910845</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02265868077826757</v>
+        <v>0.02345018447560624</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>70</v>
@@ -5944,19 +5944,19 @@
         <v>57427</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>45129</v>
+        <v>43656</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>72866</v>
+        <v>71898</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01542026474475903</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01211794719041712</v>
+        <v>0.01172241089477607</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01956609055097725</v>
+        <v>0.01930611482749359</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>120</v>
@@ -5965,19 +5965,19 @@
         <v>117633</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>95521</v>
+        <v>98085</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>141584</v>
+        <v>145159</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01625374223603777</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01319845167792636</v>
+        <v>0.01355276229974622</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01956306175495413</v>
+        <v>0.02005711991262736</v>
       </c>
     </row>
     <row r="19">
